--- a/data/trans_camb/P23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.069063072546651</v>
+        <v>-6.291487342334559</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.243866071735111</v>
+        <v>-8.659120892103736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.69935309152913</v>
+        <v>-12.23828591495844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.133339433783667</v>
+        <v>-0.983641901820536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.151034554185725</v>
+        <v>-2.176860901872641</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.140844524883544</v>
+        <v>-4.995837713464826</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.772300893916535</v>
+        <v>-2.742987182435853</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.178173375361928</v>
+        <v>-4.416939822612079</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.719210075599483</v>
+        <v>-7.880214042214297</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.286224319434819</v>
+        <v>2.270207434140819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1374636400910951</v>
+        <v>0.5385989312082383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.204332727201097</v>
+        <v>-2.681950507614968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.15600834306872</v>
+        <v>4.247159527890394</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.535124950903154</v>
+        <v>3.731529315075786</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.2217100332566779</v>
+        <v>-0.2057534455291049</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.21463102911278</v>
+        <v>2.10140034909511</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.031918015598918</v>
+        <v>1.146030090571738</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.37994375302414</v>
+        <v>-2.923461800757153</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1686716013565521</v>
+        <v>-0.1739134055604581</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2530160302618112</v>
+        <v>-0.2425581430284658</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3541563845056945</v>
+        <v>-0.3402397041032459</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08019191236211075</v>
+        <v>-0.06662853321974042</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1504287594646856</v>
+        <v>-0.1536273476975811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3545267718107618</v>
+        <v>-0.3414325622541919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1177810326667697</v>
+        <v>-0.11835763363133</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1803739814961816</v>
+        <v>-0.1892279718102966</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3253382558743564</v>
+        <v>-0.3364550831466709</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07278044212034737</v>
+        <v>0.0708735435438326</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.005017445565170804</v>
+        <v>0.01638010782234086</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.09936781113602303</v>
+        <v>-0.08055121265867025</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3555710369368353</v>
+        <v>0.3581859895571256</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2974575251913115</v>
+        <v>0.31459442684727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02106934036122298</v>
+        <v>-0.006388670092811853</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1049664759861983</v>
+        <v>0.09872351119899196</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04852704640375744</v>
+        <v>0.0555521795437213</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1111713373700416</v>
+        <v>-0.1394119887827247</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.1084566273504783</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-10.24000282785532</v>
+        <v>-10.24000282785531</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.55597266564641</v>
@@ -878,7 +878,7 @@
         <v>-3.518218124207395</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-13.66831000025548</v>
+        <v>-13.66831000025549</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.499840149192943</v>
+        <v>-8.147589650137013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.648615317577271</v>
+        <v>-9.73985175620977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.09955321447892</v>
+        <v>-20.3512724860763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.092133583893805</v>
+        <v>-1.002185315017558</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.377787899783371</v>
+        <v>-3.610015404163221</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-12.95068343915353</v>
+        <v>-13.05476744817826</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.896160785093305</v>
+        <v>-3.807425356450011</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.574628833725069</v>
+        <v>-5.642764718505388</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-16.07560420243101</v>
+        <v>-15.83104525535383</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.655329150840228</v>
+        <v>-2.011650577653514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.266079683636632</v>
+        <v>-3.308652371160033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-13.80836334933925</v>
+        <v>-13.76179193006454</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.731648606737516</v>
+        <v>5.812643808295993</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.079533875529269</v>
+        <v>2.882763357275081</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.210004618751167</v>
+        <v>-7.320807155950781</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.890573888455183</v>
+        <v>0.8216277703261234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.37113829499391</v>
+        <v>-1.167670306005057</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-11.53882895327076</v>
+        <v>-11.54008685610806</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.146648125647499</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3694181200017361</v>
+        <v>-0.3694181200017362</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06655076363904255</v>
@@ -974,7 +974,7 @@
         <v>-0.003248539788241373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3067129914569068</v>
+        <v>-0.3067129914569066</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.03929160483096733</v>
@@ -983,7 +983,7 @@
         <v>-0.08884245803127618</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.345153772360189</v>
+        <v>-0.3451537723601891</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1809059656256297</v>
+        <v>-0.1746169121698465</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2047510589429399</v>
+        <v>-0.2086552318393152</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4253302832340095</v>
+        <v>-0.4299730043050957</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0312583735492462</v>
+        <v>-0.02817244339290969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09487793023601881</v>
+        <v>-0.1018176980387098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3696556565976634</v>
+        <v>-0.3731738050657294</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09621395262555897</v>
+        <v>-0.09384612522216287</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1373341760528405</v>
+        <v>-0.1400193284012876</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3903083926187978</v>
+        <v>-0.3877930289417878</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0384365930140599</v>
+        <v>-0.04632724370120676</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.07545746376997703</v>
+        <v>-0.07642263285185386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3138228105678089</v>
+        <v>-0.3142520314454247</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1794814780391635</v>
+        <v>0.1854942344213329</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09725664374208204</v>
+        <v>0.09293030058440359</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.229111955020422</v>
+        <v>-0.2342237536559811</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02388649364211</v>
+        <v>0.02171060741909705</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03576158535519148</v>
+        <v>-0.03082449450223267</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2974442975476123</v>
+        <v>-0.2976843797119705</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-8.527160850661266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-17.97425524344206</v>
+        <v>-17.97425524344207</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.010045916954651</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.945657881013297</v>
+        <v>-7.305635280776351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.92566333669344</v>
+        <v>-14.23342297648214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-22.94400226606127</v>
+        <v>-22.86689417964615</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.122551353531713</v>
+        <v>-3.082716746698318</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.43099048059169</v>
+        <v>-10.8825232695395</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.54543517089891</v>
+        <v>-15.68724939067095</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.005511384690641</v>
+        <v>-3.395691637692069</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.08632635047264</v>
+        <v>-10.99559907277209</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.41849682670446</v>
+        <v>-18.29148790896236</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.068400465968181</v>
+        <v>5.443563170359581</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.178153291285958</v>
+        <v>-2.595309201825853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-12.94445410946429</v>
+        <v>-12.67717832129629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.826260598397784</v>
+        <v>9.054794273208534</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7815325855007891</v>
+        <v>0.7026530544176767</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-6.303009387244299</v>
+        <v>-6.129998066631698</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.994297538228246</v>
+        <v>5.163296883976447</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.429450312469673</v>
+        <v>-3.02417919929865</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-11.34732299981251</v>
+        <v>-11.36683742323097</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2547529893571099</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.5369894311750294</v>
+        <v>-0.5369894311750295</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1124086649628222</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2276672717403502</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4808344523203398</v>
+        <v>-0.4808344523203397</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1955135329785932</v>
+        <v>-0.2005166620621497</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4062581215380607</v>
+        <v>-0.3962776624914361</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6270235653991231</v>
+        <v>-0.6376123397912914</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1033690177927421</v>
+        <v>-0.1025540252016554</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3479861955468622</v>
+        <v>-0.355968983838133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5081485553331118</v>
+        <v>-0.5319766137266086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1255512226717166</v>
+        <v>-0.1047822547222089</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3373530997118992</v>
+        <v>-0.3350258320440158</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5629173098469553</v>
+        <v>-0.5546819984633791</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1636360708182353</v>
+        <v>0.179839766288018</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1038966122130486</v>
+        <v>-0.09348225565055453</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4265515534075331</v>
+        <v>-0.4179399243437484</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3838280042756121</v>
+        <v>0.382536150183408</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03190114150846471</v>
+        <v>0.02655388291824616</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2566281537628295</v>
+        <v>-0.2548662497996858</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1731648064715789</v>
+        <v>0.1865275997220256</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.118425139040663</v>
+        <v>-0.1065174769931588</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.4011637381619114</v>
+        <v>-0.3957108261099931</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.463431566332754</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-5.605070016616997</v>
+        <v>-5.605070016616994</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2682387458890267</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.433830547756934</v>
+        <v>-5.363988835840098</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.644786355451351</v>
+        <v>-7.710065068888247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.63970596063358</v>
+        <v>-16.71963553442594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2834562522354857</v>
+        <v>0.3165465965830104</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5599414379572242</v>
+        <v>-0.5653209773922839</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.513217516158529</v>
+        <v>-7.435723527386144</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.916414089755566</v>
+        <v>-1.938416657030702</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.447008736393033</v>
+        <v>-3.391681554520847</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.35724757657723</v>
+        <v>-11.36276957948794</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5100400588214806</v>
+        <v>-0.4624594246816307</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.758716232878865</v>
+        <v>-2.833249786494629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.70721308421267</v>
+        <v>-11.78492016201577</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.477745910758908</v>
+        <v>4.585583994914769</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.419433045135287</v>
+        <v>3.516362401571126</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.847048919977754</v>
+        <v>-3.814262522383758</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.355463096381892</v>
+        <v>1.497637791849134</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1830417294777095</v>
+        <v>-0.293183261159222</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.390828206087706</v>
+        <v>-8.421455669144194</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.05959512541874412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2282545069450685</v>
+        <v>-0.2282545069450684</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.008360626153518451</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1350344586430529</v>
+        <v>-0.1311747562082511</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1852879077120204</v>
+        <v>-0.1893880519711002</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4073590882737881</v>
+        <v>-0.4068829373825086</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01180675180634466</v>
+        <v>0.0120394248945918</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02161361486669282</v>
+        <v>-0.02220426939189628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2906581246654</v>
+        <v>-0.291831449739935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05735037600552843</v>
+        <v>-0.05909918642433303</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1053517058173822</v>
+        <v>-0.1035958493590218</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3464469849997633</v>
+        <v>-0.3485452708266773</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01350747388123007</v>
+        <v>-0.0110275125222809</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.07242827235834787</v>
+        <v>-0.07447269991586235</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.304913760263492</v>
+        <v>-0.3045544727684528</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1903185624856227</v>
+        <v>0.1950213751127238</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1455451642387526</v>
+        <v>0.1484753965761408</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1655873296770896</v>
+        <v>-0.1619708900036085</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04365614057756808</v>
+        <v>0.04813431880587371</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.006097522207861254</v>
+        <v>-0.008919321753678107</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2680795571324913</v>
+        <v>-0.2706823917446436</v>
       </c>
     </row>
     <row r="28">
